--- a/OPositive.xlsx
+++ b/OPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA16197-6371-4711-84BB-1664F5DE2287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F7E4F-AF06-463C-9821-B98355087854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2066C395-DD0F-43DF-93B5-CE273125C6C4}"/>
   </bookViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA7A13B-9F76-4D8A-97D0-CB2F7D587A5A}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4089,7 +4089,9 @@
       <c r="B158" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3">
+        <v>7568301973</v>
+      </c>
       <c r="D158" s="3" t="s">
         <v>227</v>
       </c>
@@ -4104,7 +4106,9 @@
       <c r="B159" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3">
+        <v>8078380594</v>
+      </c>
       <c r="D159" s="3" t="s">
         <v>227</v>
       </c>
@@ -4119,7 +4123,9 @@
       <c r="B160" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3">
+        <v>8590875142</v>
+      </c>
       <c r="D160" s="3" t="s">
         <v>227</v>
       </c>
@@ -4134,7 +4140,9 @@
       <c r="B161" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3">
+        <v>8619976868</v>
+      </c>
       <c r="D161" s="3" t="s">
         <v>227</v>
       </c>
@@ -4149,7 +4157,9 @@
       <c r="B162" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3">
+        <v>9633761689</v>
+      </c>
       <c r="D162" s="3" t="s">
         <v>227</v>
       </c>
@@ -4164,7 +4174,9 @@
       <c r="B163" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3">
+        <v>8921807189</v>
+      </c>
       <c r="D163" s="3" t="s">
         <v>227</v>
       </c>
@@ -4179,7 +4191,9 @@
       <c r="B164" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3">
+        <v>7034115532</v>
+      </c>
       <c r="D164" s="3" t="s">
         <v>227</v>
       </c>
@@ -4194,7 +4208,9 @@
       <c r="B165" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3">
+        <v>7012655370</v>
+      </c>
       <c r="D165" s="3" t="s">
         <v>227</v>
       </c>
@@ -4209,7 +4225,9 @@
       <c r="B166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3">
+        <v>8848720116</v>
+      </c>
       <c r="D166" s="3" t="s">
         <v>227</v>
       </c>
@@ -4224,7 +4242,9 @@
       <c r="B167" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3">
+        <v>6235755535</v>
+      </c>
       <c r="D167" s="3" t="s">
         <v>227</v>
       </c>
@@ -4239,7 +4259,9 @@
       <c r="B168" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3">
+        <v>8298568662</v>
+      </c>
       <c r="D168" s="3" t="s">
         <v>227</v>
       </c>
@@ -4254,7 +4276,9 @@
       <c r="B169" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3">
+        <v>7012443346</v>
+      </c>
       <c r="D169" s="3" t="s">
         <v>227</v>
       </c>
@@ -4269,7 +4293,9 @@
       <c r="B170" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3">
+        <v>9995775420</v>
+      </c>
       <c r="D170" s="3" t="s">
         <v>227</v>
       </c>
@@ -4284,7 +4310,9 @@
       <c r="B171" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3">
+        <v>7736507965</v>
+      </c>
       <c r="D171" s="3" t="s">
         <v>227</v>
       </c>
@@ -4299,7 +4327,9 @@
       <c r="B172" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3">
+        <v>8921102404</v>
+      </c>
       <c r="D172" s="3" t="s">
         <v>227</v>
       </c>
@@ -4314,7 +4344,9 @@
       <c r="B173" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3">
+        <v>9074103835</v>
+      </c>
       <c r="D173" s="3" t="s">
         <v>227</v>
       </c>
@@ -4329,7 +4361,9 @@
       <c r="B174" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3">
+        <v>7736742434</v>
+      </c>
       <c r="D174" s="3" t="s">
         <v>227</v>
       </c>
@@ -4344,7 +4378,9 @@
       <c r="B175" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3">
+        <v>8075754142</v>
+      </c>
       <c r="D175" s="3" t="s">
         <v>227</v>
       </c>
@@ -4359,7 +4395,9 @@
       <c r="B176" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3">
+        <v>8301842726</v>
+      </c>
       <c r="D176" s="3" t="s">
         <v>227</v>
       </c>
@@ -4374,7 +4412,9 @@
       <c r="B177" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3">
+        <v>7902592769</v>
+      </c>
       <c r="D177" s="3" t="s">
         <v>227</v>
       </c>
@@ -4389,7 +4429,9 @@
       <c r="B178" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3">
+        <v>9746535066</v>
+      </c>
       <c r="D178" s="3" t="s">
         <v>227</v>
       </c>
@@ -4404,7 +4446,9 @@
       <c r="B179" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3">
+        <v>8848489772</v>
+      </c>
       <c r="D179" s="3" t="s">
         <v>227</v>
       </c>
@@ -4419,7 +4463,9 @@
       <c r="B180" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3">
+        <v>9495558989</v>
+      </c>
       <c r="D180" s="3" t="s">
         <v>227</v>
       </c>
@@ -4434,7 +4480,9 @@
       <c r="B181" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="3">
+        <v>8281902575</v>
+      </c>
       <c r="D181" s="3" t="s">
         <v>227</v>
       </c>
@@ -4449,7 +4497,9 @@
       <c r="B182" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3">
+        <v>7559916187</v>
+      </c>
       <c r="D182" s="3" t="s">
         <v>227</v>
       </c>
@@ -4464,7 +4514,9 @@
       <c r="B183" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3">
+        <v>8714790901</v>
+      </c>
       <c r="D183" s="3" t="s">
         <v>227</v>
       </c>
@@ -4479,7 +4531,9 @@
       <c r="B184" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3">
+        <v>7559943700</v>
+      </c>
       <c r="D184" s="3" t="s">
         <v>227</v>
       </c>
@@ -4494,7 +4548,9 @@
       <c r="B185" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3">
+        <v>7902322439</v>
+      </c>
       <c r="D185" s="3" t="s">
         <v>227</v>
       </c>
@@ -4509,7 +4565,9 @@
       <c r="B186" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3">
+        <v>8590633947</v>
+      </c>
       <c r="D186" s="3" t="s">
         <v>227</v>
       </c>
@@ -4569,7 +4627,9 @@
       <c r="B190" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3">
+        <v>8700946967</v>
+      </c>
       <c r="D190" s="3" t="s">
         <v>227</v>
       </c>
@@ -4584,7 +4644,9 @@
       <c r="B191" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3">
+        <v>9633759205</v>
+      </c>
       <c r="D191" s="3" t="s">
         <v>227</v>
       </c>
@@ -4599,7 +4661,9 @@
       <c r="B192" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3">
+        <v>7736929562</v>
+      </c>
       <c r="D192" s="3" t="s">
         <v>227</v>
       </c>
@@ -4614,7 +4678,9 @@
       <c r="B193" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3">
+        <v>9037395817</v>
+      </c>
       <c r="D193" s="3" t="s">
         <v>227</v>
       </c>
@@ -4629,7 +4695,9 @@
       <c r="B194" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="3">
+        <v>8089137509</v>
+      </c>
       <c r="D194" s="3" t="s">
         <v>227</v>
       </c>
@@ -4644,7 +4712,9 @@
       <c r="B195" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3">
+        <v>8943545953</v>
+      </c>
       <c r="D195" s="3" t="s">
         <v>227</v>
       </c>
@@ -4659,7 +4729,9 @@
       <c r="B196" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="3">
+        <v>9496593066</v>
+      </c>
       <c r="D196" s="3" t="s">
         <v>227</v>
       </c>
@@ -4674,7 +4746,9 @@
       <c r="B197" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="3">
+        <v>9074874608</v>
+      </c>
       <c r="D197" s="3" t="s">
         <v>227</v>
       </c>
@@ -4689,7 +4763,9 @@
       <c r="B198" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="3">
+        <v>8590212236</v>
+      </c>
       <c r="D198" s="3" t="s">
         <v>227</v>
       </c>
@@ -4704,7 +4780,9 @@
       <c r="B199" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="3">
+        <v>8078299690</v>
+      </c>
       <c r="D199" s="3" t="s">
         <v>227</v>
       </c>
@@ -4719,7 +4797,9 @@
       <c r="B200" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3">
+        <v>8921056879</v>
+      </c>
       <c r="D200" s="3" t="s">
         <v>227</v>
       </c>
@@ -4734,7 +4814,9 @@
       <c r="B201" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3">
+        <v>7736648777</v>
+      </c>
       <c r="D201" s="3" t="s">
         <v>227</v>
       </c>
@@ -4749,7 +4831,9 @@
       <c r="B202" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3">
+        <v>6282297184</v>
+      </c>
       <c r="D202" s="3" t="s">
         <v>227</v>
       </c>
@@ -4764,7 +4848,9 @@
       <c r="B203" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3">
+        <v>8848660307</v>
+      </c>
       <c r="D203" s="3" t="s">
         <v>227</v>
       </c>
@@ -4779,7 +4865,9 @@
       <c r="B204" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3">
+        <v>9074046232</v>
+      </c>
       <c r="D204" s="3" t="s">
         <v>227</v>
       </c>
@@ -4794,7 +4882,9 @@
       <c r="B205" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3">
+        <v>9746952216</v>
+      </c>
       <c r="D205" s="3" t="s">
         <v>227</v>
       </c>
@@ -4809,7 +4899,9 @@
       <c r="B206" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3">
+        <v>9074131025</v>
+      </c>
       <c r="D206" s="3" t="s">
         <v>227</v>
       </c>
@@ -4824,7 +4916,9 @@
       <c r="B207" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3">
+        <v>9995052703</v>
+      </c>
       <c r="D207" s="3" t="s">
         <v>227</v>
       </c>
@@ -4839,7 +4933,9 @@
       <c r="B208" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3">
+        <v>9656961314</v>
+      </c>
       <c r="D208" s="3" t="s">
         <v>227</v>
       </c>
@@ -4854,7 +4950,9 @@
       <c r="B209" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3">
+        <v>9567074475</v>
+      </c>
       <c r="D209" s="3" t="s">
         <v>227</v>
       </c>
@@ -4869,7 +4967,9 @@
       <c r="B210" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3">
+        <v>8289927716</v>
+      </c>
       <c r="D210" s="3" t="s">
         <v>227</v>
       </c>
@@ -4884,7 +4984,9 @@
       <c r="B211" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3">
+        <v>9074053190</v>
+      </c>
       <c r="D211" s="3" t="s">
         <v>227</v>
       </c>
@@ -4899,7 +5001,9 @@
       <c r="B212" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3">
+        <v>7905146259</v>
+      </c>
       <c r="D212" s="3" t="s">
         <v>227</v>
       </c>
@@ -4914,7 +5018,9 @@
       <c r="B213" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3">
+        <v>8078326242</v>
+      </c>
       <c r="D213" s="3" t="s">
         <v>227</v>
       </c>
@@ -4929,7 +5035,9 @@
       <c r="B214" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3">
+        <v>6350334608</v>
+      </c>
       <c r="D214" s="3" t="s">
         <v>227</v>
       </c>
@@ -4944,7 +5052,9 @@
       <c r="B215" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3">
+        <v>8137028895</v>
+      </c>
       <c r="D215" s="3" t="s">
         <v>227</v>
       </c>
@@ -4959,7 +5069,9 @@
       <c r="B216" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3">
+        <v>8848799679</v>
+      </c>
       <c r="D216" s="3" t="s">
         <v>227</v>
       </c>
@@ -4974,7 +5086,9 @@
       <c r="B217" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3">
+        <v>7232865345</v>
+      </c>
       <c r="D217" s="3" t="s">
         <v>227</v>
       </c>

--- a/OPositive.xlsx
+++ b/OPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F7E4F-AF06-463C-9821-B98355087854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB27C53-1B4C-4E07-A782-F71F25EC52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2066C395-DD0F-43DF-93B5-CE273125C6C4}"/>
   </bookViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA7A13B-9F76-4D8A-97D0-CB2F7D587A5A}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,7 +4582,9 @@
       <c r="B187" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3">
+        <v>9188144527</v>
+      </c>
       <c r="D187" s="3" t="s">
         <v>227</v>
       </c>
@@ -4597,7 +4599,9 @@
       <c r="B188" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3">
+        <v>8590626006</v>
+      </c>
       <c r="D188" s="3" t="s">
         <v>227</v>
       </c>
@@ -4612,7 +4616,9 @@
       <c r="B189" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3">
+        <v>8281360875</v>
+      </c>
       <c r="D189" s="3" t="s">
         <v>227</v>
       </c>
